--- a/data/matriz_tiempo_avion.xlsx
+++ b/data/matriz_tiempo_avion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{93C2761E-53F4-4336-9C6A-D29D24F522D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20E1E29A-9B6E-453A-90D3-C30C67BD3783}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{93C2761E-53F4-4336-9C6A-D29D24F522D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A26475B9-AB94-4A5D-B843-4B1E53E9623F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{08A5050D-321B-4577-AA9B-BD78CA27F79D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="59">
   <si>
     <t>Arica</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>00:45:00</t>
+  </si>
+  <si>
+    <t>chiloé</t>
+  </si>
+  <si>
+    <t>coquimbo</t>
+  </si>
+  <si>
+    <t>Chillan</t>
   </si>
 </sst>
 </file>
@@ -687,8 +696,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1064,15 +1074,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B988E0B2-18D9-4C99-855E-92383598B84E}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="N2" sqref="N2:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.06640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1112,8 +1134,17 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1153,8 +1184,17 @@
       <c r="M2" t="s">
         <v>23</v>
       </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1194,8 +1234,17 @@
       <c r="M3" t="s">
         <v>32</v>
       </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1235,8 +1284,17 @@
       <c r="M4" t="s">
         <v>40</v>
       </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1276,8 +1334,17 @@
       <c r="M5" t="s">
         <v>45</v>
       </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1317,8 +1384,17 @@
       <c r="M6" t="s">
         <v>48</v>
       </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1358,8 +1434,17 @@
       <c r="M7" t="s">
         <v>29</v>
       </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1399,8 +1484,17 @@
       <c r="M8" t="s">
         <v>25</v>
       </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1440,8 +1534,17 @@
       <c r="M9" t="s">
         <v>37</v>
       </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1481,8 +1584,17 @@
       <c r="M10" t="s">
         <v>17</v>
       </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1522,8 +1634,17 @@
       <c r="M11" t="s">
         <v>26</v>
       </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1563,8 +1684,17 @@
       <c r="M12" t="s">
         <v>46</v>
       </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1603,6 +1733,165 @@
       </c>
       <c r="M13" t="s">
         <v>13</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/matriz_tiempo_avion.xlsx
+++ b/data/matriz_tiempo_avion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{93C2761E-53F4-4336-9C6A-D29D24F522D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A26475B9-AB94-4A5D-B843-4B1E53E9623F}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{93C2761E-53F4-4336-9C6A-D29D24F522D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3237E10F-4C36-40B7-A47C-E1809C5DB4BE}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{08A5050D-321B-4577-AA9B-BD78CA27F79D}"/>
+    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{08A5050D-321B-4577-AA9B-BD78CA27F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="tiempo_avion" sheetId="1" r:id="rId1"/>
@@ -36,23 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="59">
-  <si>
-    <t>Arica</t>
-  </si>
-  <si>
-    <t>Iquique</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="25">
   <si>
     <t>Antofagasta</t>
   </si>
   <si>
-    <t>Calama</t>
-  </si>
-  <si>
-    <t>Copiapó</t>
-  </si>
-  <si>
     <t>La Serena</t>
   </si>
   <si>
@@ -65,154 +53,64 @@
     <t>Temuco</t>
   </si>
   <si>
-    <t>Valdivia</t>
-  </si>
-  <si>
     <t>Puerto Montt</t>
   </si>
   <si>
-    <t>Punta Arenas</t>
-  </si>
-  <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
-    <t>00:00:00</t>
-  </si>
-  <si>
-    <t>01:00:00</t>
-  </si>
-  <si>
-    <t>01:20:00</t>
-  </si>
-  <si>
-    <t>03:40:00</t>
-  </si>
-  <si>
-    <t>04:10:00</t>
-  </si>
-  <si>
-    <t>02:50:00</t>
-  </si>
-  <si>
-    <t>04:50:00</t>
-  </si>
-  <si>
-    <t>05:10:00</t>
-  </si>
-  <si>
-    <t>05:25:00</t>
-  </si>
-  <si>
-    <t>05:45:00</t>
-  </si>
-  <si>
-    <t>06:50:00</t>
-  </si>
-  <si>
-    <t>01:10:00</t>
-  </si>
-  <si>
-    <t>03:30:00</t>
-  </si>
-  <si>
-    <t>04:00:00</t>
-  </si>
-  <si>
-    <t>02:30:00</t>
-  </si>
-  <si>
-    <t>04:40:00</t>
-  </si>
-  <si>
-    <t>05:00:00</t>
-  </si>
-  <si>
-    <t>05:15:00</t>
-  </si>
-  <si>
-    <t>05:35:00</t>
-  </si>
-  <si>
-    <t>06:40:00</t>
-  </si>
-  <si>
-    <t>00:40:00</t>
-  </si>
-  <si>
-    <t>02:40:00</t>
-  </si>
-  <si>
-    <t>03:10:00</t>
-  </si>
-  <si>
-    <t>02:00:00</t>
-  </si>
-  <si>
-    <t>04:30:00</t>
-  </si>
-  <si>
-    <t>04:45:00</t>
-  </si>
-  <si>
-    <t>05:05:00</t>
-  </si>
-  <si>
-    <t>06:10:00</t>
-  </si>
-  <si>
-    <t>03:00:00</t>
-  </si>
-  <si>
-    <t>01:55:00</t>
-  </si>
-  <si>
-    <t>04:15:00</t>
-  </si>
-  <si>
-    <t>04:35:00</t>
-  </si>
-  <si>
-    <t>06:15:00</t>
-  </si>
-  <si>
-    <t>03:20:00</t>
-  </si>
-  <si>
-    <t>03:55:00</t>
-  </si>
-  <si>
-    <t>05:20:00</t>
-  </si>
-  <si>
-    <t>03:35:00</t>
-  </si>
-  <si>
-    <t>01:15:00</t>
-  </si>
-  <si>
-    <t>01:30:00</t>
-  </si>
-  <si>
-    <t>01:45:00</t>
-  </si>
-  <si>
-    <t>02:05:00</t>
-  </si>
-  <si>
-    <t>00:55:00</t>
-  </si>
-  <si>
-    <t>00:45:00</t>
-  </si>
-  <si>
-    <t>chiloé</t>
-  </si>
-  <si>
-    <t>coquimbo</t>
-  </si>
-  <si>
-    <t>Chillan</t>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>Coquimbo</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
+  </si>
+  <si>
+    <t>Rancagua</t>
+  </si>
+  <si>
+    <t>Chillán</t>
+  </si>
+  <si>
+    <t>Curanilahue</t>
+  </si>
+  <si>
+    <t>Los Ángeles</t>
+  </si>
+  <si>
+    <t>Talca</t>
+  </si>
+  <si>
+    <t>Curicó</t>
+  </si>
+  <si>
+    <t>Chiloé</t>
+  </si>
+  <si>
+    <t>20:00:0020:00:00:20:00:0020:00:00:20:00:0020:00:00</t>
+  </si>
+  <si>
+    <t>20:00:002:20:00:004:20:00:0020:00:00</t>
+  </si>
+  <si>
+    <t>20:00:001:20:00:003:20:00:0020:00:00</t>
+  </si>
+  <si>
+    <t>20:00:001:20:00:007:20:00:0020:00:00</t>
+  </si>
+  <si>
+    <t>20:00:001:24:20:00:0020:00:00</t>
+  </si>
+  <si>
+    <t>20:00:001:120:00:00:20:00:0020:00:00</t>
+  </si>
+  <si>
+    <t>20:00:0020:00:00:520:00:00:20:00:0020:00:00</t>
+  </si>
+  <si>
+    <t>20:00:001:48:20:00:0020:00:00</t>
+  </si>
+  <si>
+    <t>20:00:001:58:20:00:0020:00:00</t>
   </si>
 </sst>
 </file>
@@ -698,7 +596,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1077,26 +975,14 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:P16"/>
+      <selection activeCell="B2" sqref="B2:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.06640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1105,43 +991,43 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" t="s">
-        <v>57</v>
-      </c>
       <c r="P1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
@@ -1149,749 +1035,749 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
+      <c r="H2" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
+      <c r="B3" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
+      <c r="G6" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" t="s">
-        <v>37</v>
+        <v>16</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" t="s">
-        <v>17</v>
+      <c r="K10" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" t="s">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="N11" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O11" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="N12" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O12" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" t="s">
-        <v>46</v>
+        <v>22</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.83333333333333337</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N13" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O13" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L14" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
       </c>
       <c r="O14" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
       </c>
       <c r="H15" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I15" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L15" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M15" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="N15" s="1">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O15" t="s">
+        <v>16</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
       </c>
       <c r="H16" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I16" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L16" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M16" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="N16" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O16" s="1">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1">
-        <v>1</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
